--- a/transformacion/staging/depurado/fact_proyectos_poai_2025_depurado.xlsx
+++ b/transformacion/staging/depurado/fact_proyectos_poai_2025_depurado.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
   <si>
     <t>Vigencia</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>BENEFICIARIOS</t>
+  </si>
+  <si>
+    <t>Unnamed: 4</t>
+  </si>
+  <si>
+    <t>Unnamed: 5</t>
   </si>
   <si>
     <t>Nombre_Proyecto</t>
@@ -533,13 +539,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,8 +576,14 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>2025</v>
       </c>
@@ -585,25 +597,31 @@
         <v>2142400000</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>28</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2025</v>
       </c>
@@ -617,25 +635,31 @@
         <v>4899099866</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>29</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>2025</v>
       </c>
@@ -649,25 +673,31 @@
         <v>18487762963</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>30</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>2025</v>
       </c>
@@ -681,25 +711,31 @@
         <v>308000000</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>2025</v>
       </c>
@@ -713,25 +749,31 @@
         <v>899545245</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>32</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>2025</v>
       </c>
@@ -745,25 +787,31 @@
         <v>62000000</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>33</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>2025</v>
       </c>
@@ -777,25 +825,31 @@
         <v>406200000</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>34</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -809,25 +863,31 @@
         <v>46200000</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>35</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>2025</v>
       </c>
@@ -841,25 +901,31 @@
         <v>329999985</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>36</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>2025</v>
       </c>
@@ -873,25 +939,31 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>37</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>2025</v>
       </c>
@@ -905,25 +977,31 @@
         <v>60000000</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>38</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>2025</v>
       </c>
@@ -937,25 +1015,31 @@
         <v>8104005542</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I13" t="s">
-        <v>37</v>
-      </c>
-      <c r="J13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>39</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>2025</v>
       </c>
@@ -969,25 +1053,31 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
         <v>25</v>
       </c>
-      <c r="H14" t="s">
-        <v>23</v>
-      </c>
       <c r="I14" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>40</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>2025</v>
       </c>
@@ -1001,22 +1091,28 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" t="s">
-        <v>53</v>
+        <v>41</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
